--- a/data/habitat_binning_mpsg_bins.xlsx
+++ b/data/habitat_binning_mpsg_bins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdagcc.sharepoint.com/sites/fs-cio-mpsg/SCC Library/03_Nebraska NFG/Species Evaluations/R_NNFG_SO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{A532FAFC-04A4-4385-8D94-7E4018D29175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45AD8C76-FDBC-4E77-9D5C-3CD9B32E4CA4}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{A532FAFC-04A4-4385-8D94-7E4018D29175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6866B04E-31A7-4A2A-B921-527909EEEC7E}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="825" windowWidth="21600" windowHeight="11205" xr2:uid="{D4F29366-EF2D-4ACE-A336-E63AD92FF143}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4F29366-EF2D-4ACE-A336-E63AD92FF143}"/>
   </bookViews>
   <sheets>
     <sheet name="habitat_binning" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">habitat_binning!$A$1:$D$60</definedName>
   </definedNames>
-  <calcPr calcId="0" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -716,10 +729,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -776,10 +788,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1101,18 +1109,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0B4BCA-6CB2-4A6A-948C-6DBEEC8B52C7}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1176,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1190,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1218,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1224,7 +1232,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +1246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +1274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1280,7 +1288,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1294,7 +1302,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1308,7 +1316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1330,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1336,7 +1344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1358,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1364,7 +1372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1378,7 +1386,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1392,7 +1400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1420,7 +1428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1434,7 +1442,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1448,7 +1456,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1462,7 +1470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1476,7 +1484,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1490,7 +1498,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1504,7 +1512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1518,7 +1526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1532,7 +1540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1546,7 +1554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1560,7 +1568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1574,7 +1582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1588,7 +1596,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1602,7 +1610,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1616,7 +1624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1626,11 +1634,11 @@
       <c r="C37">
         <v>24</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1644,7 +1652,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1654,11 +1662,11 @@
       <c r="C39">
         <v>18</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1668,11 +1676,11 @@
       <c r="C40">
         <v>18</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1682,11 +1690,11 @@
       <c r="C41">
         <v>15</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -1696,11 +1704,11 @@
       <c r="C42">
         <v>19</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -1710,11 +1718,11 @@
       <c r="C43">
         <v>19</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -1724,11 +1732,11 @@
       <c r="C44">
         <v>6</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -1738,11 +1746,11 @@
       <c r="C45">
         <v>6</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -1752,11 +1760,11 @@
       <c r="C46">
         <v>11</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -1766,11 +1774,11 @@
       <c r="C47">
         <v>11</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -1784,7 +1792,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -1798,7 +1806,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -1812,7 +1820,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -1826,7 +1834,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -1840,7 +1848,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -1854,7 +1862,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -1864,11 +1872,11 @@
       <c r="C54">
         <v>13</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -1882,7 +1890,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -1896,7 +1904,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -1910,7 +1918,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -1924,7 +1932,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -1938,7 +1946,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -1948,11 +1956,11 @@
       <c r="C60">
         <v>34</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -1962,7 +1970,7 @@
       <c r="C61">
         <v>34</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1973,12 +1981,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b355cb27-d675-450b-9661-86e24d269bf4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6a2b1f6-3df7-4aa2-8f71-3c19eb8f1b77">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2211,20 +2221,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b355cb27-d675-450b-9661-86e24d269bf4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6a2b1f6-3df7-4aa2-8f71-3c19eb8f1b77">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B26C8684-1592-42E3-A771-B60AE33D34FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A9D2F7-DD81-4DAD-9FE0-2C83574D8237}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b355cb27-d675-450b-9661-86e24d269bf4"/>
+    <ds:schemaRef ds:uri="a6a2b1f6-3df7-4aa2-8f71-3c19eb8f1b77"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2249,12 +2260,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A9D2F7-DD81-4DAD-9FE0-2C83574D8237}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B26C8684-1592-42E3-A771-B60AE33D34FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b355cb27-d675-450b-9661-86e24d269bf4"/>
-    <ds:schemaRef ds:uri="a6a2b1f6-3df7-4aa2-8f71-3c19eb8f1b77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/habitat_binning_mpsg_bins.xlsx
+++ b/data/habitat_binning_mpsg_bins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdagcc.sharepoint.com/sites/fs-cio-mpsg/SCC Library/03_Nebraska NFG/Species Evaluations/R_NNFG_SO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{A532FAFC-04A4-4385-8D94-7E4018D29175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6866B04E-31A7-4A2A-B921-527909EEEC7E}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{A532FAFC-04A4-4385-8D94-7E4018D29175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1320071-FFF6-42A1-986F-5A925E918FAE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4F29366-EF2D-4ACE-A336-E63AD92FF143}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4F29366-EF2D-4ACE-A336-E63AD92FF143}"/>
   </bookViews>
   <sheets>
     <sheet name="habitat_binning" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">habitat_binning!$A$1:$D$60</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -56,6 +59,9 @@
     <t>Aerial</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>Bay/sound</t>
   </si>
   <si>
@@ -83,9 +89,15 @@
     <t>Deep water</t>
   </si>
   <si>
+    <t>Lakes and Reservoirs</t>
+  </si>
+  <si>
     <t>Shallow water</t>
   </si>
   <si>
+    <t>Wetlands, Ponds, Springs, GDEs</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
@@ -110,12 +122,18 @@
     <t>Riparian</t>
   </si>
   <si>
+    <t>Rivers, Streams, Riparian</t>
+  </si>
+  <si>
     <t>SCRUB-SHRUB WETLAND</t>
   </si>
   <si>
     <t>TEMPORARY POOL</t>
   </si>
   <si>
+    <t>Playas</t>
+  </si>
+  <si>
     <t>riverine</t>
   </si>
   <si>
@@ -149,12 +167,18 @@
     <t>Bare rock/talus/scree</t>
   </si>
   <si>
+    <t>Barren-Rock</t>
+  </si>
+  <si>
     <t>Barrens</t>
   </si>
   <si>
     <t>Cliff</t>
   </si>
   <si>
+    <t>Draws and Ravines</t>
+  </si>
+  <si>
     <t>Cropland/hedgerow</t>
   </si>
   <si>
@@ -164,6 +188,12 @@
     <t>Forest - Conifer</t>
   </si>
   <si>
+    <t>Ponderosa Pine Woodland and Savanna</t>
+  </si>
+  <si>
+    <t>Plantation</t>
+  </si>
+  <si>
     <t>Forest - Hardwood</t>
   </si>
   <si>
@@ -179,6 +209,12 @@
     <t>Grassland/herbaceous</t>
   </si>
   <si>
+    <t>Northwestern Mixedgrass Prairie</t>
+  </si>
+  <si>
+    <t>Sandhills Prairie</t>
+  </si>
+  <si>
     <t>Old field</t>
   </si>
   <si>
@@ -207,46 +243,13 @@
   </si>
   <si>
     <t>Woodland - Mixed</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Barren-Rock</t>
-  </si>
-  <si>
-    <t>Wetlands, Ponds, Springs, GDEs</t>
-  </si>
-  <si>
-    <t>Rivers, Streams, Riparian</t>
-  </si>
-  <si>
-    <t>Lakes and Reservoirs</t>
-  </si>
-  <si>
-    <t>Playas</t>
-  </si>
-  <si>
-    <t>Sandhills Prairie</t>
-  </si>
-  <si>
-    <t>Ponderosa Pine Woodland and Savanna</t>
-  </si>
-  <si>
-    <t>Northwestern Mixedgrass Prairie</t>
-  </si>
-  <si>
-    <t>Draws and Ravines</t>
-  </si>
-  <si>
-    <t>Plantation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,9 +732,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1109,869 +1115,870 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0B4BCA-6CB2-4A6A-948C-6DBEEC8B52C7}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.149999999999999" customHeight="1">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
       <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
         <v>15</v>
       </c>
-      <c r="C12">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.149999999999999" customHeight="1">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
       <c r="D13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="C20">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
       <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2">
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
+        <v>33</v>
+      </c>
+      <c r="C26" s="2">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
       <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>6</v>
       </c>
       <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="2">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="2">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="2">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="2">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="2">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="2">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="2">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="2">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="2">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="2">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="2">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="2">
+        <v>36</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="2">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="2">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="2">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="2">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="2">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="2">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="2">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37">
-        <v>24</v>
-      </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38">
-        <v>24</v>
-      </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40">
-        <v>18</v>
-      </c>
-      <c r="D40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41">
-        <v>15</v>
-      </c>
-      <c r="D41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42">
-        <v>19</v>
-      </c>
-      <c r="D42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>67</v>
-      </c>
-      <c r="D48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49">
-        <v>67</v>
-      </c>
-      <c r="D49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52">
-        <v>25</v>
-      </c>
-      <c r="D52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="D61" t="s">
         <v>50</v>
-      </c>
-      <c r="C53">
-        <v>36</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-      <c r="D55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57">
-        <v>33</v>
-      </c>
-      <c r="D57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58">
-        <v>33</v>
-      </c>
-      <c r="D58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59">
-        <v>30</v>
-      </c>
-      <c r="D59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60">
-        <v>34</v>
-      </c>
-      <c r="D60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61">
-        <v>34</v>
-      </c>
-      <c r="D61" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1981,6 +1988,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b355cb27-d675-450b-9661-86e24d269bf4" xsi:nil="true"/>
@@ -1991,7 +2007,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060503D4BA0F68C4182336DE20BA13487" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbaa246a391f0b2d8e1079174e038aef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6a2b1f6-3df7-4aa2-8f71-3c19eb8f1b77" xmlns:ns3="b355cb27-d675-450b-9661-86e24d269bf4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21d111b1b530bb193cb36f47af8de345" ns2:_="" ns3:_="">
     <xsd:import namespace="a6a2b1f6-3df7-4aa2-8f71-3c19eb8f1b77"/>
@@ -2220,49 +2236,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A9D2F7-DD81-4DAD-9FE0-2C83574D8237}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b355cb27-d675-450b-9661-86e24d269bf4"/>
-    <ds:schemaRef ds:uri="a6a2b1f6-3df7-4aa2-8f71-3c19eb8f1b77"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B26C8684-1592-42E3-A771-B60AE33D34FC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA071B5A-2C04-4E60-89A1-77932E8F38AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a6a2b1f6-3df7-4aa2-8f71-3c19eb8f1b77"/>
-    <ds:schemaRef ds:uri="b355cb27-d675-450b-9661-86e24d269bf4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A9D2F7-DD81-4DAD-9FE0-2C83574D8237}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B26C8684-1592-42E3-A771-B60AE33D34FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA071B5A-2C04-4E60-89A1-77932E8F38AD}"/>
 </file>